--- a/GroceryApplicationProject/src/test/resources/TestData.xlsx
+++ b/GroceryApplicationProject/src/test/resources/TestData.xlsx
@@ -5,15 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\REENA\eclipse-workspace\GroceryApplicationProject\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\REENA\git\SeleniumAutomationRepo\GroceryApplicationProject\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7868DF-6002-419F-8615-C01FDF436A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16B18B5-83DB-427F-9305-E6869813588E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
+    <sheet name="AdminUserPage" sheetId="2" r:id="rId2"/>
+    <sheet name="ManageNewsPage" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>admin</t>
   </si>
@@ -34,6 +36,21 @@
   </si>
   <si>
     <t>wrongpassword</t>
+  </si>
+  <si>
+    <t>marianna.williamson</t>
+  </si>
+  <si>
+    <t>Staff</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>Finally weekend is here</t>
+  </si>
+  <si>
+    <t>Happy days ahead</t>
   </si>
 </sst>
 </file>
@@ -351,10 +368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -363,15 +380,18 @@
     <col min="2" max="2" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -379,7 +399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -387,12 +407,69 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{575B8411-946E-4333-ABDC-F1E9C7DB5403}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F8459E-0D71-4215-AA29-BF30536C0262}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="33.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
